--- a/3_NOVEMBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
+++ b/3_NOVEMBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -597,7 +597,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,7 +902,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1051,7 +1051,9 @@
       <c r="D10" s="8">
         <v>5</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8">
+        <v>19</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -1071,7 +1073,9 @@
       <c r="D11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="14"/>
@@ -1087,13 +1091,15 @@
       <c r="D12" s="10">
         <v>3</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="10">
+        <v>6</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="11">
         <f>SUM(D12:H12)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J12" s="15">
         <f>(I12/$I$12)*100</f>
@@ -1125,7 +1131,9 @@
       <c r="D14" s="25">
         <v>0</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="25">
+        <v>0</v>
+      </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -1144,7 +1152,9 @@
       <c r="D15" s="25">
         <v>0</v>
       </c>
-      <c r="E15" s="25"/>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -1163,7 +1173,9 @@
       <c r="D16" s="25">
         <v>0</v>
       </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="25">
+        <v>0</v>
+      </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -1184,7 +1196,9 @@
       <c r="D17" s="25">
         <v>0</v>
       </c>
-      <c r="E17" s="27"/>
+      <c r="E17" s="25">
+        <v>0</v>
+      </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -1205,7 +1219,9 @@
       <c r="D18" s="25">
         <v>3</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="25">
+        <v>3</v>
+      </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -1226,7 +1242,9 @@
       <c r="D19" s="25">
         <v>0</v>
       </c>
-      <c r="E19" s="27"/>
+      <c r="E19" s="25">
+        <v>3</v>
+      </c>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -1247,7 +1265,9 @@
       <c r="D20" s="25">
         <v>0</v>
       </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="25">
+        <v>3</v>
+      </c>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -1266,7 +1286,9 @@
       <c r="D21" s="25">
         <v>3</v>
       </c>
-      <c r="E21" s="27"/>
+      <c r="E21" s="25">
+        <v>3</v>
+      </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>

--- a/3_NOVEMBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
+++ b/3_NOVEMBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
   </bookViews>
   <sheets>
-    <sheet name="August" sheetId="6" r:id="rId1"/>
+    <sheet name="November" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">August!$A$1:$J$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">November!$A$1:$J$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>01:00 PM To 04:00 PM</t>
+  </si>
+  <si>
+    <t>12:30 PM To 06:30 PM</t>
   </si>
 </sst>
 </file>
@@ -597,7 +600,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -901,8 +904,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1054,7 +1057,9 @@
       <c r="E10" s="8">
         <v>19</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8">
+        <v>26</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="45" t="s">
@@ -1074,9 +1079,11 @@
         <v>36</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="G11" s="16"/>
       <c r="H11" s="14"/>
       <c r="I11" s="46"/>
@@ -1094,12 +1101,14 @@
       <c r="E12" s="10">
         <v>6</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="10">
+        <v>6</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="11">
         <f>SUM(D12:H12)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J12" s="15">
         <f>(I12/$I$12)*100</f>
@@ -1134,7 +1143,9 @@
       <c r="E14" s="25">
         <v>0</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -1155,7 +1166,9 @@
       <c r="E15" s="25">
         <v>0</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
@@ -1176,7 +1189,9 @@
       <c r="E16" s="25">
         <v>0</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -1199,7 +1214,9 @@
       <c r="E17" s="25">
         <v>0</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="27">
+        <v>0</v>
+      </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
@@ -1220,9 +1237,11 @@
         <v>3</v>
       </c>
       <c r="E18" s="25">
-        <v>3</v>
-      </c>
-      <c r="F18" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="F18" s="27">
+        <v>6</v>
+      </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
@@ -1243,9 +1262,11 @@
         <v>0</v>
       </c>
       <c r="E19" s="25">
-        <v>3</v>
-      </c>
-      <c r="F19" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="F19" s="27">
+        <v>6</v>
+      </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="28"/>
@@ -1266,9 +1287,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="25">
-        <v>3</v>
-      </c>
-      <c r="F20" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="F20" s="27">
+        <v>6</v>
+      </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="28"/>
@@ -1287,9 +1310,11 @@
         <v>3</v>
       </c>
       <c r="E21" s="25">
-        <v>3</v>
-      </c>
-      <c r="F21" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="F21" s="27">
+        <v>0</v>
+      </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
